--- a/P0103/09_FICHAS/N3-FD-General.xlsx
+++ b/P0103/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBFEAD6-311E-463B-895E-A0D40845629B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,13 +84,100 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0103</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>PLANO LOCALIZACION SONDEOS RED</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/ESTUDIO DE SUELOS/PLANO LOCALIZACION SONDEOS RED.pdf</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>El "Plano de Localización de Sondeos" presenta una serie de puntos geográficos donde se han realizado mediciones para estudios geotécnicos. En él se detallan las coordenadas de cada sondeo, especificando su ubicación en términos de su norte y este. Los sondeos están clasificados por diferentes tipos de puntos (como PR, BA, BV, etc.), cada uno representando diferentes características geológicas o tipos de datos recolectados.</t>
+  </si>
+  <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>Este plano es esencial para la comprensión de la composición del suelo y su variabilidad en el área de estudio.
+Variable: Coordenadas geográficas, tipo de sondaje, profundidad de sondaje, características del suelo</t>
+  </si>
+  <si>
+    <t>Nechí, Antioquia, sondeos, localización, coordenadas geográficas, análisis geotécnico, propiedades del suelo, resistencia, densidad, humedad, permeabilidad, cohesión, clasificación de sondeos, PR, BA, BV, distribución espacial, profundidad de sondaje, geología, muestreo, datos geotécnicos, evaluación de riesgos, construcción, planificación urbana, recursos naturales, estudios de suelo, variabilidad geológica.</t>
+  </si>
+  <si>
+    <t>PR0009</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>CIERRE POLIGONALES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/CIERRE POLIGONALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La carpeta contiene cinco (5) excel con bases de datos que contienen la información necesario para cinco cierres poligonales realizados en el corregimiento de Colorado del municipio de Nechí, Antioquia. Cada base de datos contiene información sobre longitud de lados del polígono, coordenadas geográficas, calculo de error y correcciones. </t>
+  </si>
+  <si>
+    <t>Base de datos</t>
+  </si>
+  <si>
+    <t>xls</t>
+  </si>
+  <si>
+    <t>Variable: Coordenadas geográficas, polígonos</t>
+  </si>
+  <si>
+    <t>Colorado, Nechí, Antioquia, localización, coordenadas geográficas, cierre poligonal</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>PLANOS PDF</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0103/02_PRODUCTOS/23.ESTUDIOS Y DISEÑOS/TOPOGRAFIA/PLANOS PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La carpeta contiene cuatro (4) planos, los cuales presentas esquemas topográficos que muestra diversas elevaciones y características geográficas del corregimiento de Colorado, zona rural del municipio de Nechí, Antioquia. Se organizan en forma de tabla, donde cada entrada incluye un código alfabético que representa diferentes categorías, como "BA" (Bajo Agua), "PR" (Punto de Referencia), "CERCO", entre otros, acompañadas de sus respectivas medidas numéricas que indican la altitud o características relevantes de cada punto evaluado, Además de curvas de nivel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los planos permiten una rápida identificación de las áreas específicas de estudio y su relación con el entorno circundante.
+Variable: curvas de nivel, coordenadas geográficas, uso del suelo, caracterización del terreno
+</t>
+  </si>
+  <si>
+    <t>Colorado, Nechí, Antioquia, topografía, curvas de nivel, coordenadas geográficas, uso del suelo, caracterización del terreno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -130,16 +217,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,18 +577,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +601,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -481,41 +641,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5">
+        <v>9999</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
